--- a/Images.xlsx
+++ b/Images.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachid\Desktop\Market_Camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EE4EF41-4004-4AA3-A8D6-EF896F391E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051C8052-AD9F-4BF7-A268-7FB2580E0BF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D0EB39B2-2CB9-4227-9FFD-7142CF857DC5}"/>
+    <workbookView xWindow="18636" yWindow="1308" windowWidth="8760" windowHeight="6000" activeTab="1" xr2:uid="{D0EB39B2-2CB9-4227-9FFD-7142CF857DC5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="D.Analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="ML" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1109,6 +1110,646 @@
         <a:xfrm>
           <a:off x="4800600" y="23123237"/>
           <a:ext cx="3857143" cy="1152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>26194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>357626</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>115723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0117F4B-2541-4122-824F-365A69260B3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2651760" y="1306354"/>
+          <a:ext cx="3801866" cy="3564249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Star: 5 Points 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD556E7-C329-406A-AE77-13ED1735D6AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3985260" y="3672840"/>
+          <a:ext cx="182880" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>546408</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>177016</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FED8347-1385-4354-842D-793102214DD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1584960" y="5387340"/>
+          <a:ext cx="2619048" cy="1190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>468356</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D7A8BCB-F7FB-427F-80A6-5218D342B593}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4373880" y="5372100"/>
+          <a:ext cx="2190476" cy="1209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>510249</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>150349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9BAEA45-15E6-4715-B788-B41103972E38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6720840" y="5379720"/>
+          <a:ext cx="2323809" cy="1171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>84848</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>14897</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{059F6F3B-FEEC-4BBA-9559-42E31AAC8027}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="6598920"/>
+          <a:ext cx="7019048" cy="2742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>122933</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>138873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0EA39C9-EBF9-466F-9FC7-D80A416BF481}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="9578340"/>
+          <a:ext cx="7133333" cy="1533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>300068</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>85538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{612241B9-A050-4122-94A7-B23FF4A55B7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1463040" y="11391900"/>
+          <a:ext cx="7371428" cy="1495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>147459</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>13141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2198EA03-9C7C-4609-8942-F45D7F37ED81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1463040" y="12908280"/>
+          <a:ext cx="9047619" cy="1552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>113400</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>178877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{238C685B-CC4B-43F0-8B56-A473874A1B18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="14546580"/>
+          <a:ext cx="7200000" cy="1542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>497353</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>450665</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>65805</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8D9BCAF-A853-4B45-BEBB-4B99532F45D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1716553" y="16253460"/>
+          <a:ext cx="4220512" cy="4477785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5130</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>174769</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B496B1-416D-4671-98B6-79AADA146D14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1424940" y="21122640"/>
+          <a:ext cx="4676190" cy="3923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>16549</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>178587</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E99069A-7248-4CEA-9391-0C4C6BD7D625}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6217920" y="21183600"/>
+          <a:ext cx="4771429" cy="3866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>513748</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>182385</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECEDC60A-6271-45E4-9740-C59195E0E2C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10934700" y="21092160"/>
+          <a:ext cx="4819048" cy="3961905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1419,7 +2060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF53098D-0567-46ED-904F-53C8C4E6A9CB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A96" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="Q129" sqref="Q129"/>
     </sheetView>
   </sheetViews>
@@ -1431,4 +2072,22 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2464488F-2CC8-4DB3-B98B-28995812AE4D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="Q140" sqref="Q140"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Images.xlsx
+++ b/Images.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachid\Desktop\Market_Camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051C8052-AD9F-4BF7-A268-7FB2580E0BF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC007DC8-BB53-49E3-AD65-DE8E70FA6039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18636" yWindow="1308" windowWidth="8760" windowHeight="6000" activeTab="1" xr2:uid="{D0EB39B2-2CB9-4227-9FFD-7142CF857DC5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D0EB39B2-2CB9-4227-9FFD-7142CF857DC5}"/>
   </bookViews>
   <sheets>
     <sheet name="D.Analysis" sheetId="1" r:id="rId1"/>
@@ -92,104 +92,104 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>37848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA330E50-648F-4B2E-BA38-4DE7F5A28C37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4241800" y="1041400"/>
+          <a:ext cx="2019300" cy="2019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>93247</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8688AD18-2E42-441B-B2F6-E76580905785}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="558801"/>
+          <a:ext cx="4360446" cy="3035300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>347980</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>29956</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171086</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAF53AF-2C89-4289-8F6A-1D34C256BA10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="106680" y="731520"/>
-          <a:ext cx="4190476" cy="2914286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>574964</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>184541</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>117763</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26A127E5-980C-40CC-8AFA-025828CFEFEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4232564" y="1080655"/>
-          <a:ext cx="2047977" cy="2098963"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
+      <xdr:colOff>447040</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -204,8 +204,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2773680" y="944880"/>
-          <a:ext cx="1318260" cy="822960"/>
+          <a:off x="2786380" y="805180"/>
+          <a:ext cx="1318260" cy="802640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -260,22 +260,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
+      <xdr:colOff>124690</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>179619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>60431</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>124089</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C4B642-790A-4D33-8B16-C21B52291CC2}"/>
+      <xdr:colOff>260345</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE1BB370-74D5-4832-B1C2-74C2CD311E8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -291,8 +291,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6195060" y="612140"/>
-          <a:ext cx="4228571" cy="2890149"/>
+          <a:off x="6220690" y="539837"/>
+          <a:ext cx="4402855" cy="3087919"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -304,15 +304,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>489065</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>122382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>153785</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>36022</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -327,8 +327,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8656320" y="990600"/>
-          <a:ext cx="1493520" cy="802640"/>
+          <a:off x="9023465" y="842818"/>
+          <a:ext cx="1493520" cy="814186"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -372,7 +372,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>$51,904</a:t>
+            <a:t>$51,847</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400"/>
         </a:p>
@@ -383,39 +383,83 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:colOff>254459</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>48490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>394855</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>165983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF6BDBC8-D2EC-4A42-B871-4FE570731055}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="864059" y="7432963"/>
+          <a:ext cx="3797996" cy="2639020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>218514</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>16777</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D72CA6A-CB2A-43B8-9CBF-60CA8D4019EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="7315200"/>
-          <a:ext cx="4485714" cy="2942857"/>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>599829</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>80406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4169CD6F-6395-4003-BCF2-B3AEA2F08829}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724400" y="8465127"/>
+          <a:ext cx="1971429" cy="980952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -427,66 +471,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:colOff>484909</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>598966</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>527465</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>51322</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5BD5AD4-1B16-40AD-9111-7AA005E400DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4861560" y="8458200"/>
-          <a:ext cx="1761905" cy="1285762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>506513</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5EDAA85-4A72-4B94-85B0-B6F816288255}"/>
+      <xdr:rowOff>141985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{638F044D-CEF9-41EE-B548-D51791350323}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -502,35 +502,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4869180" y="8221980"/>
-          <a:ext cx="1733333" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>48491</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>83127</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38434</xdr:colOff>
+          <a:off x="4752109" y="8236527"/>
+          <a:ext cx="1942857" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>574965</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>154671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>538023</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>134715</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{422BDBDE-D115-4539-B7A9-A0CB1A559BCD}"/>
+      <xdr:rowOff>129475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB475311-545A-4BDD-A571-F3E549EB7862}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -546,151 +546,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="48491" y="3865418"/>
-          <a:ext cx="4257143" cy="2933333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>62345</xdr:colOff>
-      <xdr:row>21</xdr:row>
+          <a:off x="4232565" y="3756853"/>
+          <a:ext cx="4230258" cy="3036658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>145472</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>90055</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>90383</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>132119</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5573F507-3E7E-4832-8C35-240FE7ACA732}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4329545" y="3872346"/>
-          <a:ext cx="4295238" cy="2923809"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>346363</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>62347</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>214745</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>48491</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25B8F923-51A8-4782-BBC9-ED851EAC7A21}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1565563" y="4925292"/>
-          <a:ext cx="2306782" cy="526472"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>Mean Purchase</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> Frequency:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>46 Days</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>83128</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>464127</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>69272</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -705,7 +582,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5638799" y="4946073"/>
+          <a:off x="5631872" y="4066310"/>
           <a:ext cx="2750128" cy="526472"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -758,7 +635,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>$32.58</a:t>
+            <a:t>$32.44</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400"/>
         </a:p>
@@ -768,296 +645,155 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>321212</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>57443</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>92031</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>15276</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{087F019F-09CA-4EEC-B9D1-6ED1FE0F396F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16170812" y="10115843"/>
-          <a:ext cx="4647619" cy="3249673"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>84406</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>8206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>64825</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>148458</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E4095B1-2A58-43D6-AEAE-9FF44AB82AC4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16543606" y="13541326"/>
-          <a:ext cx="4247619" cy="1054652"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>82062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>269922</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>39894</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5132E87-165A-4A7C-8077-31146489F383}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11414760" y="10140462"/>
-          <a:ext cx="4704762" cy="3249672"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>445477</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>181707</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>273439</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>158128</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{088A9A9F-4A4D-4778-8EA3-18EAB7B2D03C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11418277" y="13531947"/>
-          <a:ext cx="4704762" cy="1073701"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>581891</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>41564</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>428900</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>7189</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{515B495D-8863-44E8-809E-D1F252714446}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="581891" y="16791709"/>
-          <a:ext cx="4723809" cy="4828571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>464128</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>55419</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>273042</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>170895</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4FCECF2-FD82-419B-BB22-DF4C7E684B3C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5340928" y="16805564"/>
-          <a:ext cx="4685714" cy="4438095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>154560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>103908</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>124281</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF940DFB-C895-4941-8932-0D8C22AE3418}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3756742"/>
+          <a:ext cx="4371108" cy="3031575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>547254</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>103911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>415636</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90056</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25B8F923-51A8-4782-BBC9-ED851EAC7A21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1766454" y="4066311"/>
+          <a:ext cx="2306782" cy="526472"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Mean Purchase</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> Frequency:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>45 Days</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>166254</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>141210</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>87771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>556197</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>127817</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D766C78-70BB-4BFA-8C09-0B9342589C48}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+      <xdr:colOff>546673</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>179894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02291214-F01C-42CD-9101-9C61832AA6C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1065,51 +801,227 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="166254" y="22294628"/>
-          <a:ext cx="4657143" cy="3228571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
+          <a:ext cx="4647619" cy="3238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>43544</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>123343</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>141000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF68D4ED-B517-4928-BE5D-5CB491A9BCE2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4800600" y="23123237"/>
-          <a:ext cx="3857143" cy="1152381"/>
+      <xdr:colOff>71658</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>17552</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F1AF263-533A-4090-9FFD-3F96C83DB825}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4920344" y="23164800"/>
+          <a:ext cx="3685714" cy="1095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>75609</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>182486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{059B2B99-7B40-4510-B854-7C7001B36CAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="17500600"/>
+          <a:ext cx="4723809" cy="4847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>93133</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>578314</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>152904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A624F5E0-772A-47E9-A2BA-4625D3735B22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4969933" y="17517533"/>
+          <a:ext cx="4752381" cy="4428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>431200</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>145495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C73753F7-AEBF-4BA9-BA53-B21265AD934F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10871200" y="10795000"/>
+          <a:ext cx="4800000" cy="4438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>541867</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>312686</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>135972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{906BB050-2621-45D7-9FE6-94A04F5FCA72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15781867" y="10795001"/>
+          <a:ext cx="4647619" cy="4428571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1233,138 +1145,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>546408</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>177016</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FED8347-1385-4354-842D-793102214DD9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1584960" y="5387340"/>
-          <a:ext cx="2619048" cy="1190476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>468356</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>180824</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D7A8BCB-F7FB-427F-80A6-5218D342B593}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4373880" y="5372100"/>
-          <a:ext cx="2190476" cy="1209524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>510249</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>150349</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9BAEA45-15E6-4715-B788-B41103972E38}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6720840" y="5379720"/>
-          <a:ext cx="2323809" cy="1171429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -1389,7 +1169,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1433,7 +1213,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1477,7 +1257,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1521,7 +1301,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1565,7 +1345,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1584,84 +1364,323 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>502583</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>143964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>6804</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{185DDF82-E2A8-45D3-85AF-48424A759FDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="502583" y="16614050"/>
+          <a:ext cx="7356902" cy="5044440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>286743</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>294810</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>134762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8F1893-E2EC-4586-AB31-6CF4601C20D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="286743" y="21183599"/>
+          <a:ext cx="3056067" cy="3201813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>286110</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>262423</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>125239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A595C8F-EE17-41CF-AC10-C34BAE9C78D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3334110" y="21231225"/>
+          <a:ext cx="3024313" cy="3144664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>397776</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>286476</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>58573</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC3C5F98-4B26-4672-AE67-3EC78A79903A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6493776" y="21269325"/>
+          <a:ext cx="2936700" cy="3039898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>20955</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>348615</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B4EBE8-E98A-4436-B7FE-B4FC200ECF8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6116955" y="22471380"/>
+          <a:ext cx="327660" cy="308610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>497353</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>450665</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>65805</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8D9BCAF-A853-4B45-BEBB-4B99532F45D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1716553" y="16253460"/>
-          <a:ext cx="4220512" cy="4477785"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504490</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A93118-F3A0-46B3-9020-48BFB3F41AA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="5153025"/>
+          <a:ext cx="2676190" cy="1209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>5130</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>174769</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B496B1-416D-4671-98B6-79AADA146D14}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1424940" y="21122640"/>
-          <a:ext cx="4676190" cy="3923809"/>
+      <xdr:colOff>418817</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5865BCFE-B732-4D6B-81C3-D7327A6C0468}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="5153025"/>
+          <a:ext cx="2266667" cy="1209524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1673,66 +1692,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>16549</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>178587</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E99069A-7248-4CEA-9391-0C4C6BD7D625}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6217920" y="21183600"/>
-          <a:ext cx="4771429" cy="3866667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>513748</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>182385</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECEDC60A-6271-45E4-9740-C59195E0E2C7}"/>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>437851</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28427</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEE2D76C-6CB7-4F20-AF65-6A3A133A54EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,8 +1723,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10934700" y="21092160"/>
-          <a:ext cx="4819048" cy="3961905"/>
+          <a:off x="6581775" y="5181600"/>
+          <a:ext cx="2390476" cy="1180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>236765</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>119744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358165</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D4418A-10B1-4CC7-91CB-D04EA5FC6E53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7551965" y="20105915"/>
+          <a:ext cx="1950200" cy="1458685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2060,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF53098D-0567-46ED-904F-53C8C4E6A9CB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q129" sqref="Q129"/>
+    <sheetView topLeftCell="Q57" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AL69" sqref="AL69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2078,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2464488F-2CC8-4DB3-B98B-28995812AE4D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="Q140" sqref="Q140"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U104" sqref="U104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Images.xlsx
+++ b/Images.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachid\Desktop\Market_Camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC007DC8-BB53-49E3-AD65-DE8E70FA6039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A223B4-8552-4549-A89F-56D9F253A1F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D0EB39B2-2CB9-4227-9FFD-7142CF857DC5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{D0EB39B2-2CB9-4227-9FFD-7142CF857DC5}"/>
   </bookViews>
   <sheets>
     <sheet name="D.Analysis" sheetId="1" r:id="rId1"/>
     <sheet name="ML" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,11 +34,134 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t># Customers</t>
+  </si>
+  <si>
+    <t>Testing Accuracy:</t>
+  </si>
+  <si>
+    <t>OOB Score:</t>
+  </si>
+  <si>
+    <t>F1_Macro:</t>
+  </si>
+  <si>
+    <t>ROC_AUC:</t>
+  </si>
+  <si>
+    <t>RFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XGB </t>
+  </si>
+  <si>
+    <t>XGB</t>
+  </si>
+  <si>
+    <t>F1_Weighted:</t>
+  </si>
+  <si>
+    <t>True: High</t>
+  </si>
+  <si>
+    <t>True: Medium</t>
+  </si>
+  <si>
+    <t>True: Low</t>
+  </si>
+  <si>
+    <t>Pred: High</t>
+  </si>
+  <si>
+    <t>Pred: Medium</t>
+  </si>
+  <si>
+    <t>Pred: Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XGB (Imbalanced) </t>
+  </si>
+  <si>
+    <t>XGB (Oversampling)</t>
+  </si>
+  <si>
+    <t>True: 0</t>
+  </si>
+  <si>
+    <t>True: 1</t>
+  </si>
+  <si>
+    <t>Pred: 0</t>
+  </si>
+  <si>
+    <t>Pred: 1</t>
+  </si>
+  <si>
+    <t>Training Accuracy:</t>
+  </si>
+  <si>
+    <t>XGB (Oversampled Training Data)</t>
+  </si>
+  <si>
+    <t>Pred:0</t>
+  </si>
+  <si>
+    <t>Accuracy:</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -56,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -64,13 +190,216 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -92,16 +421,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>48986</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>130630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>37848</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>136073</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -124,35 +453,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4241800" y="1041400"/>
-          <a:ext cx="2019300" cy="2019048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+          <a:off x="4316186" y="1240973"/>
+          <a:ext cx="1944914" cy="1856014"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>93247</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8688AD18-2E42-441B-B2F6-E76580905785}"/>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>599829</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>80406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4169CD6F-6395-4003-BCF2-B3AEA2F08829}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -168,8 +497,140 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="558801"/>
-          <a:ext cx="4360446" cy="3035300"/>
+          <a:off x="4724400" y="8465127"/>
+          <a:ext cx="1971429" cy="980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>484909</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>598966</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>141985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{638F044D-CEF9-41EE-B548-D51791350323}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752109" y="8236527"/>
+          <a:ext cx="1942857" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>602344</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>121557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>20858</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>106452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F1AF263-533A-4090-9FFD-3F96C83DB825}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18280744" y="24480157"/>
+          <a:ext cx="3685714" cy="1051695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>532598</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5725BC8F-E7F2-43AE-B6E7-EBB607FE60B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16294100" y="22250400"/>
+          <a:ext cx="6184098" cy="1193800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -180,23 +641,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>347980</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>93980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447040</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>446315</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>3629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>351972</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>175987</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02EF8ADE-4F73-4DB3-AFC9-219563BA4DF4}"/>
+        <xdr:cNvPr id="32" name="TextBox 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A18509-D29E-41B1-AE50-6CEA80291536}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -204,8 +665,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2786380" y="805180"/>
-          <a:ext cx="1318260" cy="802640"/>
+          <a:off x="8371115" y="22210486"/>
+          <a:ext cx="5392057" cy="542472"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -213,6 +674,1122 @@
         <a:solidFill>
           <a:schemeClr val="lt1"/>
         </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" u="sng" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" u="sng" baseline="0"/>
+            <a:t>Accept_One Breakdown by Product </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D56132A-DDE2-49BA-8478-ECCA60C550C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7264400" y="21780500"/>
+          <a:ext cx="5943600" cy="3022600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B8EBD7-3692-4FA7-9D27-41761872C6C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8788400" y="24790400"/>
+          <a:ext cx="3784600" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" u="sng" baseline="0"/>
+            <a:t>Revenue Generated by Product</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58230CA8-5D4F-491E-82BC-7DD2AFFC9C53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="27089100"/>
+          <a:ext cx="6419850" cy="2590800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE9B7F37-E350-45CB-BE95-E756F82FB901}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7181851" y="30632400"/>
+          <a:ext cx="6286499" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>591457</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>134258</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="TextBox 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF07452-9E83-4666-906F-92FAB3437F92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="29870400"/>
+          <a:ext cx="5392057" cy="553358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" u="sng" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" u="sng" baseline="0"/>
+            <a:t>Accept_One Breakdown by Purchase Channel </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A2E423-ACE2-4C7D-8F57-75F69A4C0D38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7410450" y="33813750"/>
+          <a:ext cx="6019800" cy="2266950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>515257</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>19958</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="TextBox 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FA7BA6-A16D-40D8-8A12-AC32F2344C83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="33185100"/>
+          <a:ext cx="5392057" cy="553358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" u="sng" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" u="sng" baseline="0"/>
+            <a:t>Amount of Purchases by Channel </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>100719</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46D7612-8240-453F-AC19-E4FD020FE9F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6464300" y="11083471"/>
+          <a:ext cx="7047619" cy="5658758"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>377387</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>174171</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0CA0155-690E-4D6A-8647-186BFA070D97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6473387" y="16818429"/>
+          <a:ext cx="7111984" cy="2222500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>446315</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>402771</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4CB230-BBC7-496F-8149-F50A54A2099E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13857515" y="16818429"/>
+          <a:ext cx="6662056" cy="2280557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>141515</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>502582</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>154380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E360DEA-2375-4B86-8C68-16B0AEE32019}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13552715" y="11103429"/>
+          <a:ext cx="7066667" cy="5706094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>427733</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A555DF-AC5C-4138-892D-CC239CD29EE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22250400"/>
+          <a:ext cx="7133333" cy="6542314"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>484883</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10DAD4C8-A192-453E-B267-EBDD96CB319C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="28451176"/>
+          <a:ext cx="7133333" cy="5810250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>475357</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>27862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE3268D-B606-4ACC-87AA-E56D2B156E17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="38138100"/>
+          <a:ext cx="7142857" cy="5704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>399752</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8FC40A9-DA2C-4881-92D8-E919904B5C9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7714952" y="39452550"/>
+          <a:ext cx="6343948" cy="2990850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>246977</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>45371</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF450F14-2E4C-442F-B772-DB5EF1AC575C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8781377" y="4267200"/>
+          <a:ext cx="4675194" cy="3877294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>37496</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>5938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>568779</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177141</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4855D9C4-C6D2-41E0-A999-ED98D931F053}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10400696" y="5372595"/>
+          <a:ext cx="2969683" cy="541317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>Mean Amount Spent</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t> Per </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>Purchase</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t>$32.44</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>10884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>456695</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>138054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C94FA7D0-E796-4071-A73E-2ABAD15E7206}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4376058" y="4267198"/>
+          <a:ext cx="4615037" cy="3828313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>84611</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>125682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>562593</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>111828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25B8F923-51A8-4782-BBC9-ED851EAC7A21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6180611" y="5307282"/>
+          <a:ext cx="2306782" cy="541317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>Mean Purchase</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t> Frequency:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t>45 Days</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>112091</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>55419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>108367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82823178-0E6A-44A2-9EF0-3B970AC8172D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6208091" y="795648"/>
+          <a:ext cx="3632595" cy="2828805"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>271351</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>29358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>545671</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>128056</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B35B3F4-08BA-42CC-934D-82DE76F03ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8196151" y="1324758"/>
+          <a:ext cx="1493520" cy="838927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
@@ -237,21 +1814,21 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
             <a:t>Mean Customer</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> Age:</a:t>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> Income:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>45</a:t>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t>$51,847</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1400"/>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -259,40 +1836,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>124690</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>179619</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>260345</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>25574</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE1BB370-74D5-4832-B1C2-74C2CD311E8E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6220690" y="539837"/>
-          <a:ext cx="4402855" cy="3087919"/>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>296701</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>130629</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>68911</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0913C3C1-9C2C-470A-8BBB-7FC9E031FC13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="906301" y="770906"/>
+          <a:ext cx="3491528" cy="2814091"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -303,23 +1880,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>489065</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>122382</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>153785</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>36022</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>482072</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>167211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581132</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>75904</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B35B3F4-08BA-42CC-934D-82DE76F03ED3}"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02EF8ADE-4F73-4DB3-AFC9-219563BA4DF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -327,15 +1904,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9023465" y="842818"/>
-          <a:ext cx="1493520" cy="814186"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+          <a:off x="2920472" y="1277554"/>
+          <a:ext cx="1318260" cy="833979"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
@@ -360,674 +1935,24 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
             <a:t>Mean Customer</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> Income:</a:t>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> Age:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>$51,847</a:t>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t>45</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1400"/>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254459</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>48490</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>394855</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>165983</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF6BDBC8-D2EC-4A42-B871-4FE570731055}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="864059" y="7432963"/>
-          <a:ext cx="3797996" cy="2639020"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>599829</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>80406</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4169CD6F-6395-4003-BCF2-B3AEA2F08829}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4724400" y="8465127"/>
-          <a:ext cx="1971429" cy="980952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>484909</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>131618</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>598966</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>141985</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{638F044D-CEF9-41EE-B548-D51791350323}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4752109" y="8236527"/>
-          <a:ext cx="1942857" cy="190476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>574965</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>154671</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>538023</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>129475</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB475311-545A-4BDD-A571-F3E549EB7862}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4232565" y="3756853"/>
-          <a:ext cx="4230258" cy="3036658"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>145472</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>103910</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>90055</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="TextBox 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4855D9C4-C6D2-41E0-A999-ED98D931F053}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5631872" y="4066310"/>
-          <a:ext cx="2750128" cy="526472"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>Mean Amount Spent</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> Per </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>Purchase</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>$32.44</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>154560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>103908</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>124281</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF940DFB-C895-4941-8932-0D8C22AE3418}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3756742"/>
-          <a:ext cx="4371108" cy="3031575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>547254</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>103911</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>415636</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>90056</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25B8F923-51A8-4782-BBC9-ED851EAC7A21}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1766454" y="4066311"/>
-          <a:ext cx="2306782" cy="526472"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>Mean Purchase</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> Frequency:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>45 Days</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>166254</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>87771</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>546673</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>179894</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02291214-F01C-42CD-9101-9C61832AA6C0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="166254" y="22294628"/>
-          <a:ext cx="4647619" cy="3238095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>43544</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>71658</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>17552</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F1AF263-533A-4090-9FFD-3F96C83DB825}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4920344" y="23164800"/>
-          <a:ext cx="3685714" cy="1095238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>75609</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>182486</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{059B2B99-7B40-4510-B854-7C7001B36CAF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="17500600"/>
-          <a:ext cx="4723809" cy="4847619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>93133</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>8466</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>578314</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>152904</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A624F5E0-772A-47E9-A2BA-4625D3735B22}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4969933" y="17517533"/>
-          <a:ext cx="4752381" cy="4428571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>431200</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>145495</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C73753F7-AEBF-4BA9-BA53-B21265AD934F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10871200" y="10795000"/>
-          <a:ext cx="4800000" cy="4438095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>541867</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>177801</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>312686</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>135972</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{906BB050-2621-45D7-9FE6-94A04F5FCA72}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15781867" y="10795001"/>
-          <a:ext cx="4647619" cy="4428571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1043,8 +1968,8 @@
       <xdr:rowOff>26194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>357626</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>623903</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>115723</xdr:rowOff>
     </xdr:to>
@@ -1150,8 +2075,8 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>84848</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>626897</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>14897</xdr:rowOff>
     </xdr:to>
@@ -1194,8 +2119,8 @@
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>122933</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>664982</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>138873</xdr:rowOff>
     </xdr:to>
@@ -1238,8 +2163,8 @@
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>300068</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>842117</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>85538</xdr:rowOff>
     </xdr:to>
@@ -1282,8 +2207,8 @@
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>147459</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45618</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>13141</xdr:rowOff>
     </xdr:to>
@@ -1326,10 +2251,10 @@
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>113400</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>178877</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>655449</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>1077</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1370,8 +2295,8 @@
       <xdr:rowOff>143964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>544285</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552934</xdr:colOff>
       <xdr:row>117</xdr:row>
       <xdr:rowOff>6804</xdr:rowOff>
     </xdr:to>
@@ -1414,8 +2339,8 @@
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>294810</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>470070</xdr:colOff>
       <xdr:row>134</xdr:row>
       <xdr:rowOff>134762</xdr:rowOff>
     </xdr:to>
@@ -1458,8 +2383,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>262423</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1028233</xdr:colOff>
       <xdr:row>134</xdr:row>
       <xdr:rowOff>125239</xdr:rowOff>
     </xdr:to>
@@ -1502,8 +2427,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>286476</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>871946</xdr:colOff>
       <xdr:row>134</xdr:row>
       <xdr:rowOff>58573</xdr:rowOff>
     </xdr:to>
@@ -1610,7 +2535,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>504490</xdr:colOff>
+      <xdr:colOff>4957</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>28424</xdr:rowOff>
     </xdr:to>
@@ -1653,8 +2578,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>418817</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>143227</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>28424</xdr:rowOff>
     </xdr:to>
@@ -1697,8 +2622,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>437851</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>403561</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>28427</xdr:rowOff>
     </xdr:to>
@@ -1741,8 +2666,8 @@
       <xdr:rowOff>119744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>358165</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533425</xdr:colOff>
       <xdr:row>116</xdr:row>
       <xdr:rowOff>97971</xdr:rowOff>
     </xdr:to>
@@ -1769,6 +2694,2201 @@
         <a:xfrm>
           <a:off x="7551965" y="20105915"/>
           <a:ext cx="1950200" cy="1458685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>337546</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>137276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD451B6B-A4A5-46BB-BCFC-1AB389369960}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="11288486"/>
+          <a:ext cx="4504762" cy="1247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>72283</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>80114</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B11245-2112-4B1B-861C-CC7AEDE3CDB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15312283" y="11157858"/>
+          <a:ext cx="2446231" cy="1545770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>315685</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>141513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>141513</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Arrow: Right 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F273204-28B2-43B4-9B9C-17F015C42B72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14336485" y="11800113"/>
+          <a:ext cx="827314" cy="370114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>111334</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438497</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>86361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{722FCEE8-504C-4BA7-9CC3-0BF41BBCA598}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14132134" y="39928801"/>
+          <a:ext cx="1905426" cy="1661160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>115920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37FE75D5-2582-4664-A712-B62D362ABAA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22844760" y="34162080"/>
+          <a:ext cx="6050279" cy="3968400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>492469</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>102026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D30460C-0798-448A-BC38-2FAD8C06BB1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14584680" y="33506410"/>
+          <a:ext cx="8214993" cy="6554896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>211752</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>314961</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AFA495D-57D7-40A0-9ED6-645A84352F34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18210192" y="35128200"/>
+          <a:ext cx="4370409" cy="2407920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>258233</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>137582</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Star: 5 Points 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19AE7BD-4FF2-498A-A9A8-839111DDBE38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4233333" y="34586333"/>
+          <a:ext cx="224367" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>763906</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>24766</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>169546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Star: 5 Points 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAA98F2-1DE7-415B-A230-EC63621E8911}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5964556" y="31832550"/>
+          <a:ext cx="318135" cy="198121"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>155908</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>128172</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7717F44E-92D3-4002-B339-7B8C14F3033F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="36200080"/>
+          <a:ext cx="2416508" cy="783492"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>250190</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>373709</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>7513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F800C8-A77B-47D6-8D76-9E46F0F1C87F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2510790" y="36186110"/>
+          <a:ext cx="2447619" cy="860953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>25299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FC2C633-C3B3-431D-BB09-FF2483FB8FE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2609850" y="35509200"/>
+          <a:ext cx="2355850" cy="634899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50801</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>119214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>34824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43BE708-A036-4CB5-81EC-DCD4042F8539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="50801" y="35488714"/>
+          <a:ext cx="2317749" cy="664910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>740168</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>167011</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{460559B3-4204-4B17-9BA7-3FD5E3C69DAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="40401240"/>
+          <a:ext cx="7019048" cy="5028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>24829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30EEACD9-3D70-4D80-90DF-060FA4DB6D18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4693920" y="41178480"/>
+          <a:ext cx="1905000" cy="1548829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1036320</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>49187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>213775</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>48268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B7CF5C-9F30-4A2A-8742-160A459F6D5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7284720" y="39241387"/>
+          <a:ext cx="6949855" cy="4977481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>57038</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BE02487-B01F-4D38-BBFA-F1812F163CE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4638675" y="32680275"/>
+          <a:ext cx="3133726" cy="876188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>57042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7687C81-86ED-4C73-871F-A5FC0600E72C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877176" y="32689800"/>
+          <a:ext cx="3219450" cy="866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="TextBox 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0311D64E-5676-40A0-A0AD-D4DB5ED39687}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1460500" y="38658800"/>
+          <a:ext cx="4851400" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" u="sng"/>
+            <a:t>Training Set </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="TextBox 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25950BAA-7845-4BE8-8588-9D9E8CA6C9A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8407400" y="38696900"/>
+          <a:ext cx="5372100" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" u="sng"/>
+            <a:t>Training Set (Oversampling)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>108253</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>122766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>304091</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>122138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E0A5E16-9E34-4D28-8E66-300EA339A7B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18895786" y="25641299"/>
+          <a:ext cx="6901438" cy="5248706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>138628</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>150585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>226200</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79924BC9-D3B0-4161-B27D-DF192AECD778}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23216342" y="26798814"/>
+          <a:ext cx="1916372" cy="923472"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>122282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106751</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>133990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{835DB7C4-D7EF-484F-A46C-DD46CE37657F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1709057" y="25660168"/>
+          <a:ext cx="6823237" cy="5236851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>177074</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>29270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>906901</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>101841</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A5FCDA7-FB3E-4825-817A-E235A73FA5E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4770845" y="27243556"/>
+          <a:ext cx="1339427" cy="1008742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>668867</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>47706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>323421</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>80446</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9820CCB1-4F89-4AA0-AC04-FCA119A97F00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16289867" y="19072306"/>
+          <a:ext cx="7122154" cy="5011140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>70757</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>91924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>223156</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>121557</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA5FE72-A1AF-4442-A649-342041B65544}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19490871" y="21373495"/>
+          <a:ext cx="1371599" cy="1139976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>538480</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>154940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="TextBox 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27405923-6553-4006-A988-9ED41D7DEAD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2987040" y="24780240"/>
+          <a:ext cx="4881880" cy="612140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" u="sng"/>
+            <a:t>Training Set </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>595086</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>22134</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="TextBox 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA993931-DDE1-4FDF-A71B-330EA16CE9D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8436429" y="25124228"/>
+          <a:ext cx="4709886" cy="620849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" u="sng"/>
+            <a:t>Performance</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" u="sng" baseline="0"/>
+            <a:t> on Test</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" u="sng"/>
+            <a:t> Set </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1013278</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>184149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>279507</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>174439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Picture 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB932BBA-7AC5-4B63-A7B5-16B0AF4449D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9438821" y="26092149"/>
+          <a:ext cx="2782315" cy="1492519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>94344</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>67734</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>159658</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62736F3F-170F-44A6-9720-23724D037B5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8510211" y="28232101"/>
+          <a:ext cx="4088190" cy="1764090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>429858</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>175858</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>128644</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{787E28DD-E7FD-46C4-BCC5-B303B4B6FF95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4087458" y="902746"/>
+          <a:ext cx="2498165" cy="328557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" u="sng"/>
+            <a:t>Performance</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" u="sng" baseline="0"/>
+            <a:t> on Test</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" u="sng"/>
+            <a:t> Set </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57823</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>163157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>522643</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106381</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1CDFB5-A374-40AF-9539-76EAF96D2B92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1886623" y="898263"/>
+          <a:ext cx="1684020" cy="310777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" u="sng"/>
+            <a:t>Training Set </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>117158</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>353378</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123982</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAEEDE31-738C-4029-AEFC-A9DFB45E6DEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7137083" y="1295200"/>
+          <a:ext cx="3284220" cy="2486382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>349164</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>481013</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>51760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F7CC85-8921-4F1A-8948-B404B68226D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4702089" y="4820127"/>
+          <a:ext cx="3408449" cy="2508733"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>234784</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>586754</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>32713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{871541FA-39FC-4AFA-B26D-89909593F565}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="844384" y="1157287"/>
+          <a:ext cx="3399970" cy="2533026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>528638</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57094</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA3567C-8614-4B8E-AA51-8A8A3B63063B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2357438" y="2019300"/>
+          <a:ext cx="661988" cy="447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>313484</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>123199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB2FBC9-B10D-4DA9-88CB-66BEE8E00A2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="9448800"/>
+          <a:ext cx="6723809" cy="5009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>40044</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D924A5F7-84BB-46EE-9F57-D4CE17CD82A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5924550" y="10163175"/>
+          <a:ext cx="1685925" cy="1135419"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>173239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>113649</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26266701-87B3-4F0D-8623-57F8C0D565D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="716164"/>
+          <a:ext cx="3743324" cy="2836010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>157277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>218199</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>166023</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7719349-339B-4701-BFDC-E747BF46F78F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695700" y="700202"/>
+          <a:ext cx="3837699" cy="2904346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123184</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA5F3D85-16D3-46E1-9819-30435D1FB4DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="3774017"/>
+          <a:ext cx="3848100" cy="3084400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>93134</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DCD6CF2-FD22-4E6C-9E98-7B864C09450E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3822700" y="3759730"/>
+          <a:ext cx="3563938" cy="3068637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" u="sng"/>
+            <a:t>Model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" u="sng" baseline="0"/>
+            <a:t> Scoring Summary:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t>For each Model:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t>1. Sum the Inner and Outer CV F1_Macro and Accuracy Scores.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t>2. Subtract the standard deviation experienced in the Outer CV's F1_Macro and Accuracy scores. Subtract the score difference between the Inner CV and Outer CV for both metrics. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" u="sng" baseline="0"/>
+            <a:t>Best Model Score</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t>Model 4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t>Hyperparameters: {'subsample': 0.7, 'n_estimators': 3000, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.025, 'gamma': 0.1, 'colsample_bytree': 0.9}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>198967</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7F943B4-6BE5-4C41-9EA9-4CB0A93804E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="198967" y="6904566"/>
+          <a:ext cx="7014633" cy="524934"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2079,8 +5199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF53098D-0567-46ED-904F-53C8C4E6A9CB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="Q57" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AL69" sqref="AL69"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2095,10 +5215,680 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2464488F-2CC8-4DB3-B98B-28995812AE4D}">
+  <dimension ref="A46:W256"/>
+  <sheetViews>
+    <sheetView topLeftCell="O127" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AM152" sqref="AM152"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="46" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q46" s="1">
+        <f>(69.639954)/(485.632107+69.639954+1308.295812)</f>
+        <v>3.7369153551618454E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S55" s="1">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="56" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S56" s="1">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="57" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S57" s="1">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="146" spans="17:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q146" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="R146" s="15">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="V146" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W146" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="Q147" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="R147" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="U147" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V147" s="6">
+        <v>308</v>
+      </c>
+      <c r="W147" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="148" spans="17:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q148" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="R148" s="15">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="U148" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V148" s="8">
+        <v>36</v>
+      </c>
+      <c r="W148" s="9">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="154" spans="17:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R154" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S154" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="Q155" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R155" s="6">
+        <v>366</v>
+      </c>
+      <c r="S155" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="156" spans="17:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q156" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R156" s="8">
+        <v>70</v>
+      </c>
+      <c r="S156" s="9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="168" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B168" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B169" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" s="1">
+        <v>0.79400000000000004</v>
+      </c>
+    </row>
+    <row r="170" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B170" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" s="1">
+        <v>0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="171" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B171" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="1">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="172" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="1">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="175" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B175" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" s="5"/>
+    </row>
+    <row r="176" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B176" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" s="1">
+        <v>0.753</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K176" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q176" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R176" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S176" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B177" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" s="1">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F177" s="1">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I177" s="1">
+        <v>0.628</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L177" s="1">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="P177" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q177" s="6">
+        <v>48</v>
+      </c>
+      <c r="R177" s="10">
+        <v>7</v>
+      </c>
+      <c r="S177" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F178" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I178" s="1">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L178" s="1">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="P178" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q178" s="11">
+        <v>10</v>
+      </c>
+      <c r="R178" s="12">
+        <v>15</v>
+      </c>
+      <c r="S178" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B179" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="1">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F179" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I179" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="K179" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L179" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="P179" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q179" s="8">
+        <v>3</v>
+      </c>
+      <c r="R179" s="14">
+        <v>3</v>
+      </c>
+      <c r="S179" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="H180" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I180" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K180" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L180" s="1">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="182" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B182" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B183" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" s="1">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B184" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" s="1">
+        <v>0.82599999999999996</v>
+      </c>
+    </row>
+    <row r="185" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B185" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="1">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="186" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B186" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="189" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B189" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B190" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F190" s="1">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="191" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B191" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F191" s="1">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="192" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B192" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" s="1">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F192" s="1">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B195" s="6"/>
+      <c r="C195" s="7"/>
+    </row>
+    <row r="196" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B196" s="8"/>
+      <c r="C196" s="9"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+    </row>
+    <row r="206" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B206" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B207" s="6">
+        <v>366</v>
+      </c>
+      <c r="C207" s="7">
+        <v>39</v>
+      </c>
+      <c r="H207" s="6"/>
+      <c r="I207" s="7"/>
+    </row>
+    <row r="208" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B208" s="8">
+        <v>70</v>
+      </c>
+      <c r="C208" s="9">
+        <v>81</v>
+      </c>
+      <c r="H208" s="8"/>
+      <c r="I208" s="9"/>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B253" s="3"/>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B254" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" s="1">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B255" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" s="1">
+        <v>0.70299999999999996</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B256" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A025B46-FF0C-4F4E-82B7-3C7DC3479B33}">
+  <dimension ref="F18:M20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18:M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="18" spans="6:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="6">
+        <v>390</v>
+      </c>
+      <c r="H19" s="7">
+        <v>23</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="6">
+        <v>369</v>
+      </c>
+      <c r="M19" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="6:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="8">
+        <v>66</v>
+      </c>
+      <c r="H20" s="9">
+        <v>77</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="8">
+        <v>49</v>
+      </c>
+      <c r="M20" s="9">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F10F0B-EADB-4210-99DD-B1C22E93ABE9}">
+  <dimension ref="H8:J15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="10.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="8:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="H8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="8:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="H9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="18">
+        <v>0.76</v>
+      </c>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="8:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="H10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="8:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="8:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="8:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H13" s="19"/>
+      <c r="I13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="8:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="H14" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="21">
+        <v>342</v>
+      </c>
+      <c r="J14" s="22">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="8:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H15" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="23">
+        <v>47</v>
+      </c>
+      <c r="J15" s="24">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A071B5-39C5-4E5C-B2E0-8420D5352F0C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U104" sqref="U104"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
